--- a/Research/Conversion.xlsx
+++ b/Research/Conversion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ConditionDamage" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,8 +479,8 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>5280/3</f>
-        <v>1760</v>
+        <f>820/2.5</f>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -506,27 +506,27 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>(C3- 2 - C2 *0.25) / 0.06</f>
-        <v>28966.666666666668</v>
+        <v>5100</v>
       </c>
       <c r="D8">
         <f>(C3- 7.5 - C2 *1.55) / 0.155</f>
-        <v>10506.451612903225</v>
+        <v>1267.741935483871</v>
       </c>
       <c r="E8">
         <f>(C3- 3.5 - C2 *0.375) / 0.06</f>
-        <v>28775</v>
+        <v>4908.3333333333339</v>
       </c>
       <c r="F8">
         <f>(C3- 1.5 - C2 *0.18) / 0.045</f>
-        <v>38757.777777777774</v>
+        <v>6935.5555555555566</v>
       </c>
       <c r="G8">
         <f>(C3-2 - C2 *0.1) / 0.035</f>
-        <v>49999.999999999993</v>
+        <v>9085.7142857142844</v>
       </c>
       <c r="H8">
         <f>(C3-3.5 - C2 *0.575) / 0.0625</f>
-        <v>27368</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -535,26 +535,26 @@
       </c>
       <c r="C10">
         <f>(C3- 2.5 - C2 *0.5) / 0.05</f>
-        <v>34350</v>
+        <v>5710</v>
       </c>
       <c r="D10">
         <f>(C3- 8 - C2 *4) / 0.25</f>
-        <v>5728</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>(C3- 4 - C2 ) / 0.1</f>
-        <v>16760</v>
+        <v>2440</v>
       </c>
       <c r="F10">
         <f>(C3- 1.875 - C2 *0.375) / 0.0375</f>
-        <v>46083.333333333336</v>
+        <v>7896.666666666667</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <f>(C3-10 - C2 *1.5) / 0.2</f>
-        <v>8150</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
